--- a/Project Documents/Project_GanttChart.xlsx
+++ b/Project Documents/Project_GanttChart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\College\4th year\FYP\The_Truth_about_Twitter\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\College\4th year\FYP\The Truth about Twitter\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{319D7E00-1D1D-4C78-AF12-CCBA4A531130}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADC0D85-53AC-43D8-8745-CAADADA39FDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{DC48C0EB-4A74-456B-A167-C1FE483EEF7C}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>Build Machine Learning Models</t>
   </si>
   <si>
-    <t>Full System Integration</t>
-  </si>
-  <si>
     <t>Evaluation and Tweaking of Models</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>Build Web Front End</t>
+  </si>
+  <si>
+    <t>Deployment</t>
   </si>
 </sst>
 </file>
@@ -266,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -412,11 +412,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -491,8 +502,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -517,6 +526,7 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,13 +674,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -688,7 +698,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10077450" y="0"/>
+          <a:off x="9829800" y="0"/>
           <a:ext cx="1" cy="3476625"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1077,7 +1087,7 @@
   <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,54 +1098,54 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="60" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="62" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="63" t="s">
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="56" t="s">
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="57" t="s">
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="58" t="s">
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
     </row>
     <row r="2" spans="1:33" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
@@ -1296,14 +1306,14 @@
       <c r="P4" s="12"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
+        <v>22</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="47"/>
       <c r="W4" s="48"/>
       <c r="X4" s="48"/>
       <c r="Y4" s="48"/>
@@ -1337,10 +1347,10 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S5" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T5" s="27"/>
       <c r="U5" s="29"/>
@@ -1378,10 +1388,10 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S6" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
@@ -1400,7 +1410,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
@@ -1419,15 +1429,15 @@
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S7" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="34"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="49"/>
       <c r="X7" s="32"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="37"/>
@@ -1460,10 +1470,10 @@
       <c r="P8" s="47"/>
       <c r="Q8" s="49"/>
       <c r="R8" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S8" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
@@ -1482,7 +1492,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
@@ -1502,17 +1512,17 @@
       <c r="Q9" s="13"/>
       <c r="R9" s="27"/>
       <c r="S9" s="29"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="49"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="34"/>
       <c r="X9" s="32"/>
       <c r="Y9" s="34"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="41"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="49"/>
       <c r="AE9" s="42"/>
       <c r="AF9" s="41"/>
       <c r="AG9" s="44"/>
@@ -1556,7 +1566,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -1576,14 +1586,14 @@
       <c r="Q11" s="13"/>
       <c r="R11" s="27"/>
       <c r="S11" s="29"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="47"/>
       <c r="W11" s="48"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="39"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="49"/>
       <c r="AB11" s="37"/>
       <c r="AC11" s="39"/>
       <c r="AD11" s="41"/>
@@ -1593,7 +1603,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
@@ -1617,13 +1627,13 @@
       <c r="U12" s="29"/>
       <c r="V12" s="32"/>
       <c r="W12" s="34"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="49"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="37"/>
       <c r="AA12" s="39"/>
       <c r="AB12" s="37"/>
       <c r="AC12" s="39"/>
-      <c r="AD12" s="41"/>
+      <c r="AD12" s="50"/>
       <c r="AE12" s="42"/>
       <c r="AF12" s="41"/>
       <c r="AG12" s="44"/>
@@ -1661,8 +1671,8 @@
       <c r="AB13" s="48"/>
       <c r="AC13" s="48"/>
       <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="62"/>
       <c r="AG13" s="45"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
@@ -1702,17 +1712,17 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E15" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L15" s="46"/>
       <c r="M15" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE15" s="46" t="s">
         <v>19</v>
-      </c>
-      <c r="N15" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF15" s="46" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
